--- a/ResultadoEleicoesDistritos/R. A. AÇORES_SÃO ROQUE DO PICO.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_SÃO ROQUE DO PICO.xlsx
@@ -597,64 +597,64 @@
         <v>990</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="J2" t="n">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>44</v>
       </c>
       <c r="T2" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="U2" t="n">
         <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
